--- a/QuerysSQL.xlsx
+++ b/QuerysSQL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hecto\Desktop\ShakyShaky\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hecto\Desktop\ShakyShaky\No code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE89BAC-9B6F-4581-89B1-7711A851AF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4ED038B-BD0C-48F4-ACFD-F5BA4E744DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Usuario" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>IdUsuario</t>
   </si>
@@ -94,6 +94,27 @@
   </si>
   <si>
     <t>CantidadUnidad</t>
+  </si>
+  <si>
+    <t>FerLuga</t>
+  </si>
+  <si>
+    <t>LOL</t>
+  </si>
+  <si>
+    <t>hector.quezada@lasallistas.org.mx</t>
+  </si>
+  <si>
+    <t>Malteada de chocolate</t>
+  </si>
+  <si>
+    <t>Chocolate</t>
+  </si>
+  <si>
+    <t>Onzas</t>
+  </si>
+  <si>
+    <t>oz</t>
   </si>
 </sst>
 </file>
@@ -422,16 +443,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -468,6 +489,90 @@
       <c r="E2" t="str">
         <f>_xlfn.CONCAT("Insert into usuario values (", A2,",'",B2,"','",C2,"','",D2, "')")</f>
         <v>Insert into usuario values (1,'ADMIN','AerisVII7','hectoriinq@hotmail.com')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E14" si="0">_xlfn.CONCAT("Insert into usuario values (", A3,",'",B3,"','",C3,"','",D3, "')")</f>
+        <v>Insert into usuario values (2,'FerLuga','LOL','hector.quezada@lasallistas.org.mx')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into usuario values (,'','','')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into usuario values (,'','','')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into usuario values (,'','','')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into usuario values (,'','','')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into usuario values (,'','','')</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into usuario values (,'','','')</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into usuario values (,'','','')</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into usuario values (,'','','')</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into usuario values (,'','','')</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into usuario values (,'','','')</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into usuario values (,'','','')</v>
       </c>
     </row>
   </sheetData>
@@ -480,10 +585,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD2CEEB-5E6B-4BD2-8D65-076D11F3DEB9}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -520,6 +625,21 @@
         <v>Insert into coctel values (1,'Coca de piña',1)</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="str">
+        <f>_xlfn.CONCAT("Insert into coctel values (", A3,",'",B3,"',",C3,")")</f>
+        <v>Insert into coctel values (2,'Malteada de chocolate',2)</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -527,10 +647,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25682FBB-6322-46B0-95F1-3FF4AC61FA1B}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,6 +678,18 @@
         <v>Insert into ingrediente values (1,'Coca')</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="str">
+        <f>_xlfn.CONCAT("Insert into ingrediente values (", A3, ",'",B3,"')")</f>
+        <v>Insert into ingrediente values (2,'Chocolate')</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -565,10 +697,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49309A40-5F99-4844-9118-68946C061190}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,6 +734,21 @@
         <v>Insert into unidad values (1,'Mililitros','ml')</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="str">
+        <f>_xlfn.CONCAT("Insert into unidad values (", A3,",'",B3,"','",C3,"')")</f>
+        <v>Insert into unidad values (2,'Onzas','oz')</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -609,10 +756,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF10ECB-7BEE-4404-8F0D-FD5979AA8565}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -655,6 +802,42 @@
         <v>Insert into IngredienteCoctel values (1,1,300,1)</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E4" si="0">_xlfn.CONCAT("Insert into IngredienteCoctel values (", A3,",",B3,",",C3,",",D3, ")")</f>
+        <v>Insert into IngredienteCoctel values (2,2,100,1)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into IngredienteCoctel values (2,1,50,2)</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
